--- a/assets/downloads/Pilz_Herrschaften_Tabelle.xlsx
+++ b/assets/downloads/Pilz_Herrschaften_Tabelle.xlsx
@@ -501,7 +501,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1461,44 +1461,44 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="5" t="inlineStr">
+      <c r="A26" s="3" t="inlineStr">
         <is>
           <t>Bernau (Zákoutí)</t>
         </is>
       </c>
-      <c r="B26" s="5" t="inlineStr">
+      <c r="B26" s="3" t="inlineStr">
         <is>
           <t>Böhmen / Mittelböhmen</t>
         </is>
       </c>
-      <c r="C26" s="5" t="inlineStr">
+      <c r="C26" s="3" t="inlineStr">
         <is>
           <t>1803</t>
         </is>
       </c>
-      <c r="D26" s="5" t="inlineStr">
+      <c r="D26" s="3" t="inlineStr">
         <is>
           <t>Marianna Handl (Heirat mit Josef Bechinie)</t>
         </is>
       </c>
-      <c r="E26" s="5" t="inlineStr">
-        <is>
-          <t>Herrschaft Blatno ODER Rothenhaus</t>
-        </is>
-      </c>
-      <c r="F26" s="5" t="inlineStr">
-        <is>
-          <t>ZUORDNUNG UNKLAR</t>
-        </is>
-      </c>
-      <c r="G26" s="5" t="inlineStr">
-        <is>
-          <t>Unsicher</t>
-        </is>
-      </c>
-      <c r="H26" s="5" t="inlineStr">
-        <is>
-          <t>Zugehörigkeit zu prüfen</t>
+      <c r="E26" s="3" t="inlineStr">
+        <is>
+          <t>Herrschaft Hagensdorf (Ahníkov) / Gut Göttersdorf (Boleboř)</t>
+        </is>
+      </c>
+      <c r="F26" s="3" t="inlineStr">
+        <is>
+          <t>Urspr. Burg Neuseeberg; ab 1454: Rothenhaus; ab 1680: Hagensdorf (Teilung)</t>
+        </is>
+      </c>
+      <c r="G26" s="3" t="inlineStr">
+        <is>
+          <t>Gesichert</t>
+        </is>
+      </c>
+      <c r="H26" s="3" t="inlineStr">
+        <is>
+          <t>Kreis Žatecký; Matrikel 1841 nennt 'Herrschaft H..., Kreis Žatecký'</t>
         </is>
       </c>
     </row>
@@ -1547,7 +1547,7 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>Ondrejow (Ondřejov) / Hlawatschow</t>
+          <t>Záhořany 11</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1557,12 +1557,12 @@
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>ca. 1830</t>
+          <t>1841</t>
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr">
         <is>
-          <t>Josef Bechinie (Revierförster)</t>
+          <t>Josef Bechinie (Revierförster); Geburt Marie Zuzana Bechinie (10.1.1841)</t>
         </is>
       </c>
       <c r="E28" s="3" t="inlineStr">
@@ -1575,21 +1575,21 @@
           <t>Fürsten Khevenhüller-Metsch</t>
         </is>
       </c>
-      <c r="G28" s="3" t="inlineStr">
-        <is>
-          <t>Gesichert</t>
+      <c r="G28" s="4" t="inlineStr">
+        <is>
+          <t>Gesichert (Matrikel)</t>
         </is>
       </c>
       <c r="H28" s="3" t="inlineStr">
         <is>
-          <t>Revier unter Kammerburg</t>
+          <t>Matrikel Vranov 02, fol. 83/173; Vater der unehelichen Tochter: František Vožický, Förster</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>Samechov</t>
+          <t>Hradec 36</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
@@ -1599,35 +1599,39 @@
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>1813</t>
+          <t>1841–1872</t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
         <is>
-          <t>Marie Bechinie (Geburt)</t>
+          <t>František Vožický (Förster); Heirat Marie Vožická geb. Bechinie (1872)</t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr">
         <is>
-          <t>Herrschaft Kammerburg (Komorní Hrádek)</t>
+          <t>Ehem. Herrschaft Kammerburg (Komorní Hrádek)</t>
         </is>
       </c>
       <c r="F29" s="3" t="inlineStr">
         <is>
-          <t>Fürsten Khevenhüller-Metsch</t>
-        </is>
-      </c>
-      <c r="G29" s="3" t="inlineStr">
-        <is>
-          <t>Gesichert</t>
-        </is>
-      </c>
-      <c r="H29" s="3" t="inlineStr"/>
+          <t>Ab 1850: Gerichtsbezirk Černý Kostelec, BH Český Brod</t>
+        </is>
+      </c>
+      <c r="G29" s="4" t="inlineStr">
+        <is>
+          <t>Gesichert (Matrikel)</t>
+        </is>
+      </c>
+      <c r="H29" s="3" t="inlineStr">
+        <is>
+          <t>Matrikel Konojedy 15, fol. 181/332</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>Bielschitz (Bělčice)</t>
+          <t>Ondrejow (Ondřejov) / Hlawatschow</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
@@ -1637,201 +1641,281 @@
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>vor 1819</t>
+          <t>ca. 1830</t>
         </is>
       </c>
       <c r="D30" s="3" t="inlineStr">
         <is>
-          <t>Philipp Bechinie (Jäger)</t>
+          <t>Josef Bechinie (Revierförster)</t>
         </is>
       </c>
       <c r="E30" s="3" t="inlineStr">
         <is>
-          <t>Herrschaft Schlüsselburg (Lnáře)</t>
-        </is>
-      </c>
-      <c r="F30" s="5" t="inlineStr">
-        <is>
-          <t>BESITZER NICHT ERMITTELT</t>
+          <t>Herrschaft Kammerburg (Komorní Hrádek)</t>
+        </is>
+      </c>
+      <c r="F30" s="3" t="inlineStr">
+        <is>
+          <t>Fürsten Khevenhüller-Metsch</t>
         </is>
       </c>
       <c r="G30" s="3" t="inlineStr">
         <is>
-          <t>Teilweise unsicher</t>
+          <t>Gesichert</t>
         </is>
       </c>
       <c r="H30" s="3" t="inlineStr">
         <is>
-          <t>Genauer Zeitraum und Besitzer zu prüfen</t>
+          <t>Revier unter Kammerburg</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
+          <t>Samechov</t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>Böhmen / Mittelböhmen</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>1813</t>
+        </is>
+      </c>
+      <c r="D31" s="3" t="inlineStr">
+        <is>
+          <t>Marie Bechinie (Geburt)</t>
+        </is>
+      </c>
+      <c r="E31" s="3" t="inlineStr">
+        <is>
+          <t>Herrschaft Kammerburg (Komorní Hrádek)</t>
+        </is>
+      </c>
+      <c r="F31" s="3" t="inlineStr">
+        <is>
+          <t>Fürsten Khevenhüller-Metsch</t>
+        </is>
+      </c>
+      <c r="G31" s="3" t="inlineStr">
+        <is>
+          <t>Gesichert</t>
+        </is>
+      </c>
+      <c r="H31" s="3" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="inlineStr">
+        <is>
+          <t>Bielschitz (Bělčice)</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Böhmen / Mittelböhmen</t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="inlineStr">
+        <is>
+          <t>vor 1819</t>
+        </is>
+      </c>
+      <c r="D32" s="3" t="inlineStr">
+        <is>
+          <t>Philipp Bechinie (Jäger)</t>
+        </is>
+      </c>
+      <c r="E32" s="3" t="inlineStr">
+        <is>
+          <t>Herrschaft Schlüsselburg (Lnáře)</t>
+        </is>
+      </c>
+      <c r="F32" s="5" t="inlineStr">
+        <is>
+          <t>BESITZER NICHT ERMITTELT</t>
+        </is>
+      </c>
+      <c r="G32" s="3" t="inlineStr">
+        <is>
+          <t>Teilweise unsicher</t>
+        </is>
+      </c>
+      <c r="H32" s="3" t="inlineStr">
+        <is>
+          <t>Genauer Zeitraum und Besitzer zu prüfen</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="inlineStr">
+        <is>
           <t>Silberskalitz (Stříbrná Skalice)</t>
         </is>
       </c>
-      <c r="B31" s="3" t="inlineStr">
+      <c r="B33" s="3" t="inlineStr">
         <is>
           <t>Böhmen / Mittelböhmen</t>
         </is>
       </c>
-      <c r="C31" s="3" t="inlineStr">
+      <c r="C33" s="3" t="inlineStr">
         <is>
           <t>1865</t>
         </is>
       </c>
-      <c r="D31" s="3" t="inlineStr">
+      <c r="D33" s="3" t="inlineStr">
         <is>
           <t>Josef Bechinie (Tod)</t>
         </is>
       </c>
-      <c r="E31" s="3" t="inlineStr">
+      <c r="E33" s="3" t="inlineStr">
         <is>
           <t>Herrschaft Schwarzkosteletz (Kostelec nad Černými lesy)</t>
         </is>
       </c>
-      <c r="F31" s="3" t="inlineStr">
+      <c r="F33" s="3" t="inlineStr">
         <is>
           <t>Fürsten Liechtenstein</t>
         </is>
       </c>
-      <c r="G31" s="3" t="inlineStr">
+      <c r="G33" s="3" t="inlineStr">
         <is>
           <t>Gesichert</t>
         </is>
       </c>
-      <c r="H31" s="3" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="6" t="inlineStr">
+      <c r="H33" s="3" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="6" t="inlineStr">
         <is>
           <t>UNSICHERE / ZU PRÜFENDE ORTE</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="5" t="inlineStr">
-        <is>
-          <t>Rakonitz (Rakovník)</t>
-        </is>
-      </c>
-      <c r="B33" s="5" t="inlineStr">
-        <is>
-          <t>Böhmen / Mittelböhmen</t>
-        </is>
-      </c>
-      <c r="C33" s="5" t="inlineStr">
-        <is>
-          <t>vor 1769?</t>
-        </is>
-      </c>
-      <c r="D33" s="5" t="inlineStr">
-        <is>
-          <t>Herkunftsort Philipp Bechinie (lt. Heiratseintrag 1769)</t>
-        </is>
-      </c>
-      <c r="E33" s="5" t="inlineStr">
-        <is>
-          <t>Königliche Kammerstadt</t>
-        </is>
-      </c>
-      <c r="F33" s="5" t="inlineStr">
-        <is>
-          <t>Direkt landesherrlich – keine Patrimonialherrschaft</t>
-        </is>
-      </c>
-      <c r="G33" s="5" t="inlineStr">
-        <is>
-          <t>ZU PRÜFEN</t>
-        </is>
-      </c>
-      <c r="H33" s="5" t="inlineStr">
-        <is>
-          <t>Kein Taufeintrag gefunden – Herkunft unsicher</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="5" t="inlineStr">
-        <is>
-          <t>Miskowitz (Myslkovice)</t>
-        </is>
-      </c>
-      <c r="B34" s="5" t="inlineStr">
-        <is>
-          <t>Böhmen / Mittelböhmen</t>
-        </is>
-      </c>
-      <c r="C34" s="5" t="inlineStr">
-        <is>
-          <t>vor 1764?</t>
-        </is>
-      </c>
-      <c r="D34" s="5" t="inlineStr">
-        <is>
-          <t>Möglicher Herkunftsort Theresia ("Pessel aus Miskowitz")</t>
-        </is>
-      </c>
-      <c r="E34" s="5" t="inlineStr">
-        <is>
-          <t>NICHT ERMITTELT</t>
-        </is>
-      </c>
-      <c r="F34" s="5" t="inlineStr">
-        <is>
-          <t>NICHT ERMITTELT</t>
-        </is>
-      </c>
-      <c r="G34" s="5" t="inlineStr">
-        <is>
-          <t>ZU PRÜFEN</t>
-        </is>
-      </c>
-      <c r="H34" s="5" t="inlineStr">
-        <is>
-          <t>Jüdische Vorfahrin; Herkunft nicht verifiziert</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="5" t="inlineStr">
         <is>
+          <t>Rakonitz (Rakovník)</t>
+        </is>
+      </c>
+      <c r="B35" s="5" t="inlineStr">
+        <is>
+          <t>Böhmen / Mittelböhmen</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="inlineStr">
+        <is>
+          <t>vor 1769?</t>
+        </is>
+      </c>
+      <c r="D35" s="5" t="inlineStr">
+        <is>
+          <t>Herkunftsort Philipp Bechinie (lt. Heiratseintrag 1769)</t>
+        </is>
+      </c>
+      <c r="E35" s="5" t="inlineStr">
+        <is>
+          <t>Königliche Kammerstadt</t>
+        </is>
+      </c>
+      <c r="F35" s="5" t="inlineStr">
+        <is>
+          <t>Direkt landesherrlich – keine Patrimonialherrschaft</t>
+        </is>
+      </c>
+      <c r="G35" s="5" t="inlineStr">
+        <is>
+          <t>ZU PRÜFEN</t>
+        </is>
+      </c>
+      <c r="H35" s="5" t="inlineStr">
+        <is>
+          <t>Kein Taufeintrag gefunden – Herkunft unsicher</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="5" t="inlineStr">
+        <is>
+          <t>Miskowitz (Myslkovice)</t>
+        </is>
+      </c>
+      <c r="B36" s="5" t="inlineStr">
+        <is>
+          <t>Böhmen / Mittelböhmen</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="inlineStr">
+        <is>
+          <t>vor 1764?</t>
+        </is>
+      </c>
+      <c r="D36" s="5" t="inlineStr">
+        <is>
+          <t>Möglicher Herkunftsort Theresia ("Pessel aus Miskowitz")</t>
+        </is>
+      </c>
+      <c r="E36" s="5" t="inlineStr">
+        <is>
+          <t>NICHT ERMITTELT</t>
+        </is>
+      </c>
+      <c r="F36" s="5" t="inlineStr">
+        <is>
+          <t>NICHT ERMITTELT</t>
+        </is>
+      </c>
+      <c r="G36" s="5" t="inlineStr">
+        <is>
+          <t>ZU PRÜFEN</t>
+        </is>
+      </c>
+      <c r="H36" s="5" t="inlineStr">
+        <is>
+          <t>Jüdische Vorfahrin; Herkunft nicht verifiziert</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="5" t="inlineStr">
+        <is>
           <t>Nemilkov</t>
         </is>
       </c>
-      <c r="B35" s="5" t="inlineStr">
+      <c r="B37" s="5" t="inlineStr">
         <is>
           <t>Böhmen / Mittelböhmen</t>
         </is>
       </c>
-      <c r="C35" s="5" t="inlineStr">
+      <c r="C37" s="5" t="inlineStr">
         <is>
           <t>1768</t>
         </is>
       </c>
-      <c r="D35" s="5" t="inlineStr">
+      <c r="D37" s="5" t="inlineStr">
         <is>
           <t>Graf Joseph Khuen von Belasi (Taufzeuge bei Konversion Theresia)</t>
         </is>
       </c>
-      <c r="E35" s="5" t="inlineStr">
+      <c r="E37" s="5" t="inlineStr">
         <is>
           <t>Gut Nemilkov</t>
         </is>
       </c>
-      <c r="F35" s="5" t="inlineStr">
+      <c r="F37" s="5" t="inlineStr">
         <is>
           <t>Graf Joseph Khuen von Belasi</t>
         </is>
       </c>
-      <c r="G35" s="5" t="inlineStr">
+      <c r="G37" s="5" t="inlineStr">
         <is>
           <t>Gesichert (nur Zeuge)</t>
         </is>
       </c>
-      <c r="H35" s="5" t="inlineStr">
+      <c r="H37" s="5" t="inlineStr">
         <is>
           <t>Kein Wohnort der Vorfahren; nur Herkunft eines Zeugen</t>
         </is>
@@ -1840,9 +1924,9 @@
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A32:H32"/>
     <mergeCell ref="A19:H19"/>
     <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A34:H34"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2468,7 +2552,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3251,38 +3335,92 @@
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>Herrschaft Kammerburg (Komorní Hrádek)</t>
+          <t>Herrschaft Hagensdorf (Ahníkov)</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>um 1803/1809</t>
+          <t>urspr.</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>Grafen von Waldstein</t>
-        </is>
-      </c>
-      <c r="D44" s="3" t="inlineStr">
-        <is>
-          <t>Dienstherr Josef Bechinie</t>
-        </is>
-      </c>
+          <t>Burg Neuseeberg (Nový Žeberk)</t>
+        </is>
+      </c>
+      <c r="D44" s="3" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="3" t="inlineStr"/>
       <c r="B45" s="3" t="inlineStr">
         <is>
+          <t>ab 1454</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="inlineStr">
+        <is>
+          <t>Rothenhaus (Červený Hrádek)</t>
+        </is>
+      </c>
+      <c r="D45" s="3" t="inlineStr">
+        <is>
+          <t>Durch Albert von Konipas</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="inlineStr"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>ab 1680</t>
+        </is>
+      </c>
+      <c r="C46" s="3" t="inlineStr">
+        <is>
+          <t>Eigenständige Herrschaft Hagensdorf + Gut Göttersdorf</t>
+        </is>
+      </c>
+      <c r="D46" s="3" t="inlineStr">
+        <is>
+          <t>Teilung von Rothenhaus; inkl. Bernau/Zákoutí</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>Herrschaft Kammerburg (Komorní Hrádek)</t>
+        </is>
+      </c>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>um 1803/1809</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="inlineStr">
+        <is>
+          <t>Grafen von Waldstein</t>
+        </is>
+      </c>
+      <c r="D47" s="3" t="inlineStr">
+        <is>
+          <t>Dienstherr Josef Bechinie</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="inlineStr"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
           <t>nach 1809</t>
         </is>
       </c>
-      <c r="C45" s="3" t="inlineStr">
+      <c r="C48" s="3" t="inlineStr">
         <is>
           <t>Fürsten Khevenhüller-Metsch</t>
         </is>
       </c>
-      <c r="D45" s="3" t="inlineStr">
+      <c r="D48" s="3" t="inlineStr">
         <is>
           <t>Dienstherr Josef Bechinie bis zur Pensionierung</t>
         </is>
@@ -3373,100 +3511,83 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>Bernau (Zákoutí)</t>
+          <t>Bielschitz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Zugehörigkeit zu Blatno oder Rothenhaus unklar</t>
+          <t>Besitzer der Herrschaft Schlüsselburg (Lnáře) nicht ermittelt</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>Katastralgemeinde-Zuordnung recherchieren</t>
+          <t>Grundbücher prüfen</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>Bielschitz</t>
+          <t>Rakonitz</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Besitzer der Herrschaft Schlüsselburg (Lnáře) nicht ermittelt</t>
+          <t>Als Herkunft Philipp Bechinie genannt, aber kein Taufeintrag gefunden</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>Grundbücher prüfen</t>
+          <t>Evtl. andere Pfarrei; Matrikensuche erweitern</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>Rakonitz</t>
+          <t>Miskowitz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Als Herkunft Philipp Bechinie genannt, aber kein Taufeintrag gefunden</t>
+          <t>Möglicher Herkunftsort Theresia 'Pessel' – nicht verifiziert</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>Evtl. andere Pfarrei; Matrikensuche erweitern</t>
+          <t>Jüdische Matriken prüfen</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>Miskowitz</t>
+          <t>Verbindung Bechinie v. Lazan</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>Möglicher Herkunftsort Theresia 'Pessel' – nicht verifiziert</t>
+          <t>Marie Venantia als Zeugin 1768 – Verwandtschaft vermutet aber NICHT BEWIESEN</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>Jüdische Matriken prüfen</t>
+          <t>KEINE Annahme ohne Primärquellennachweis; Familienarchiv Bechinie v. Lazan recherchieren</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>Verbindung Bechinie v. Lazan</t>
+          <t>Kammerburg: Waldstein → Khevenhüller</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Marie Venantia als Zeugin 1768 – Verwandtschaft vermutet aber NICHT BEWIESEN</t>
+          <t>Genauer Zeitpunkt des Besitzerwechsels nicht ermittelt</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
-        <is>
-          <t>KEINE Annahme ohne Primärquellennachweis; Familienarchiv Bechinie v. Lazan recherchieren</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>Kammerburg: Waldstein → Khevenhüller</t>
-        </is>
-      </c>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>Genauer Zeitpunkt des Besitzerwechsels nicht ermittelt</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="inlineStr">
         <is>
           <t>Grundbücher Kammerburg prüfen</t>
         </is>
